--- a/data/calcs/save_calcs/global_mean_data.xlsx
+++ b/data/calcs/save_calcs/global_mean_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,197 +436,203 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>IP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>I0</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>IF</t>
+          <t>mean</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2.06323212995964</v>
       </c>
       <c r="C2" t="n">
-        <v>24.17040945351953</v>
+        <v>2.174726767300435</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4225483524692952</v>
+        <v>2.242432058206409</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3262897972843836</v>
+        <v>2.112243226672423</v>
       </c>
       <c r="F2" t="n">
-        <v>7.379627381803973</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.782514426289791</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.217485573710208</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9</v>
+        <v>2.148158545534727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.173575525270702</v>
+        <v>24.17040945351953</v>
       </c>
       <c r="C3" t="n">
-        <v>24.6723153386076</v>
+        <v>24.68191017424561</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4898783777491684</v>
+        <v>24.79242123692412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2914039618720233</v>
+        <v>23.9192487359343</v>
       </c>
       <c r="F3" t="n">
-        <v>7.293516725045813</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.840790112556023</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.159209887443977</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
+        <v>24.39099740015589</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>dS0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.242769193142729</v>
+        <v>0.4225483524692952</v>
       </c>
       <c r="C4" t="n">
-        <v>24.79034462844806</v>
+        <v>0.4922814279462545</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5865066036740421</v>
+        <v>0.5867662140440464</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3180368900821108</v>
+        <v>0.3684276001125894</v>
       </c>
       <c r="F4" t="n">
-        <v>7.228083539034122</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.80540886402128</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.194591135978721</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9</v>
+        <v>0.4675058986430464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.112069813341116</v>
+        <v>0.3262897972843836</v>
       </c>
       <c r="C5" t="n">
-        <v>23.91903798177617</v>
+        <v>0.2917839861045567</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3684035500885393</v>
+        <v>0.318710233571351</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1599043236361397</v>
+        <v>0.159799895900133</v>
       </c>
       <c r="F5" t="n">
-        <v>6.906454591502478</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.79647149858344</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.203528501416558</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
+        <v>0.2741459782151061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.147911665428547</v>
+        <v>1.657087683535477</v>
       </c>
       <c r="C6" t="n">
-        <v>24.38802685058784</v>
+        <v>1.556289121901398</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4668342209952613</v>
+        <v>1.542387543798052</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2739087432186643</v>
+        <v>1.448562904744733</v>
       </c>
       <c r="F6" t="n">
-        <v>7.201920559346596</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.806296225362634</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.193703774637365</v>
-      </c>
-      <c r="I6" t="n">
+        <v>1.551081813494915</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.782514426289791</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.842098776136301</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.805920879557073</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.796504409142666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.806759622781458</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>I0</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8.217485573710208</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.157901223863698</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.194079120442927</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.203495590857333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.19324037721854</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
         <v>9</v>
       </c>
     </row>
